--- a/techniqo/data_new_ticker/ERIS.xlsx
+++ b/techniqo/data_new_ticker/ERIS.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G796"/>
+  <dimension ref="A1:G798"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28246,6 +28246,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B797" t="n">
+        <v>527</v>
+      </c>
+      <c r="C797" t="n">
+        <v>538</v>
+      </c>
+      <c r="D797" t="n">
+        <v>520.25</v>
+      </c>
+      <c r="E797" t="n">
+        <v>528.3</v>
+      </c>
+      <c r="F797" t="n">
+        <v>171459</v>
+      </c>
+      <c r="G797" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B798" t="n">
+        <v>531.8</v>
+      </c>
+      <c r="C798" t="n">
+        <v>538.55</v>
+      </c>
+      <c r="D798" t="n">
+        <v>523.25</v>
+      </c>
+      <c r="E798" t="n">
+        <v>535.2</v>
+      </c>
+      <c r="F798" t="n">
+        <v>86368</v>
+      </c>
+      <c r="G798" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/ERIS.xlsx
+++ b/techniqo/data_new_ticker/ERIS.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G798"/>
+  <dimension ref="A1:G800"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28296,6 +28296,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B799" t="n">
+        <v>533.4</v>
+      </c>
+      <c r="C799" t="n">
+        <v>545</v>
+      </c>
+      <c r="D799" t="n">
+        <v>530</v>
+      </c>
+      <c r="E799" t="n">
+        <v>533.75</v>
+      </c>
+      <c r="F799" t="n">
+        <v>97621</v>
+      </c>
+      <c r="G799" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B800" t="n">
+        <v>535</v>
+      </c>
+      <c r="C800" t="n">
+        <v>552.95</v>
+      </c>
+      <c r="D800" t="n">
+        <v>533</v>
+      </c>
+      <c r="E800" t="n">
+        <v>539.5</v>
+      </c>
+      <c r="F800" t="n">
+        <v>297813</v>
+      </c>
+      <c r="G800" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
